--- a/medicine/Enfance/Marie_Aubinais/Marie_Aubinais.xlsx
+++ b/medicine/Enfance/Marie_Aubinais/Marie_Aubinais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Aubinais est une journaliste française, auteur de presse et d’édition jeunesse, née le 23 mai 1960 à Nantes[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Aubinais est une journaliste française, auteur de presse et d’édition jeunesse, née le 23 mai 1960 à Nantes,. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Aubinais fait partie de l’équipe de rédaction du magazine Pomme d’Api du groupe Bayard pendant plus de trente ans[3]. Elle travaille également pour les magazines de la maison d'édition Fleurus.
-Spécialiste de la petite enfance, elle est l’auteure attitrée des histoires Petit Ours Brun à partir de 1984[3], après qu'elle a succédé à sa créatrice Claude Lebrun. Elle travaille par ailleurs pour différentes maisons d’édition jeunesse, et signe notamment la collection des « Grandes questions des tout-petits » chez Bayard éditions.
-Elle s'établit comme journaliste indépendante, ce qui lui permet de travailler pour les groupes de presse parisiens depuis son domicile en Anjou[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Aubinais fait partie de l’équipe de rédaction du magazine Pomme d’Api du groupe Bayard pendant plus de trente ans. Elle travaille également pour les magazines de la maison d'édition Fleurus.
+Spécialiste de la petite enfance, elle est l’auteure attitrée des histoires Petit Ours Brun à partir de 1984, après qu'elle a succédé à sa créatrice Claude Lebrun. Elle travaille par ailleurs pour différentes maisons d’édition jeunesse, et signe notamment la collection des « Grandes questions des tout-petits » chez Bayard éditions.
+Elle s'établit comme journaliste indépendante, ce qui lui permet de travailler pour les groupes de presse parisiens depuis son domicile en Anjou.
 </t>
         </is>
       </c>
